--- a/requirement/siswatest baru.xlsx
+++ b/requirement/siswatest baru.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VFAIROH\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VFAIROH\Documents\semester 6\perpus-wb\requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3AD96C-C50C-46CE-BAD5-E04750987B8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA41AD11-DB52-4F65-AB65-0E9C7FBF44B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{486C2FB2-28FE-4C13-B9B8-6A90390025AD}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,16 +470,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
@@ -493,16 +493,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>2017</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2">
-        <v>2017</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -516,16 +516,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>2017</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>2017</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -539,16 +539,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>2017</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>2017</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -562,16 +562,16 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>2017</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>2017</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -585,16 +585,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>2017</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>2017</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
